--- a/biology/Botanique/Calamus_(plante)/Calamus_(plante).xlsx
+++ b/biology/Botanique/Calamus_(plante)/Calamus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamus est un genre de la famille des Arécacées (palmiers). Les palmiers des genres Calamus et Daemonorops regroupent les palmiers communément appelés rotin. Le terme Calamus dérive du grec calamos = roseau, en référence aux tiges minces semblables au bambou.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se rencontrent principalement en Asie du Sud-Est. La plus grande diversité spécifique se rencontre dans les forêts de l'ouest de la Malaisie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la grande majorité des cas, ce sont des palmiers grimpants, aux stipes longs et fins, devenant vite lianescents. Le diamètre de ces stipes varie considérablement selon les espèces : de quelques millimètres à plus de 10 cm. Leur longueur est également très variable : de quelques centimètres à plus de 200 m. Les rotins sont des palmiers solitaires ou cespiteux, le plus souvent en forme de lianes grimpantes nécessitant un support.
 Les feuilles sont pennées, épineuses ou armées de crochets. Certaines se terminent par de longs flagelles garnis de crochets, qui servent à arrimer le palmier à la végétation environnante.
@@ -574,7 +590,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-famille des Calamoideae
 Tribu des Calameae
@@ -606,9 +624,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (14 mars 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (14 mars 2013) :
 Calamus acanthochlamys
 Calamus acanthophyllus
 Calamus acanthospathus
@@ -988,11 +1008,11 @@
 Calamus zeylanicus
 Calamus zollingeri
 Calamus zonatus
-Selon ITIS      (14 mars 2013)[1] :
+Selon ITIS      (14 mars 2013) :
 Calamus caesius Blume
 Calamus deerratus G. Mann &amp; H. Wendl.
 Calamus rotang L.
-Selon World Checklist of Selected Plant Families (WCSP)  (14 mars 2013)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 mars 2013) :
 Calamus acanthochlamys J.Dransf. (1990)
 Calamus acanthophyllus Becc. (1910)
 Calamus acanthospathus Griff. (1845)
@@ -1372,7 +1392,7 @@
 Calamus zeylanicus Becc. (1893)
 Calamus zollingeri Becc. (1908)
 Calamus zonatus Becc. (1902)
-Selon Plants of the World online (POWO)                (30 janvier 2022)[4] :
+Selon Plants of the World online (POWO)                (30 janvier 2022) :
 Contient les données issu des synonymes :
 Ceratolobus Blume ex Schult. &amp; Schult.f.
 Retispatha J.Dransf.
@@ -1651,7 +1671,7 @@
 Calamus myriacanthus       Becc.  
 Calamus myrianthus       Becc.  
 Calamus nagbettai       R.R.Fernandez &amp; Dey  
-Calamus nambariensis  </t>
+Calamus nambariensis       Becc.  </t>
         </is>
       </c>
     </row>
